--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J1" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1011,22 +1011,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
@@ -429,16 +429,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -447,13 +447,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -619,16 +619,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -999,34 +999,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
@@ -429,16 +429,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" t="n">
         <v>0</v>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -619,16 +619,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -999,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>

--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_APENAS_VALORES.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -447,13 +447,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" t="n">
         <v>0</v>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
